--- a/assets/files/submission/metabobank/MetaboBank_DI-MS_metadata.xlsx
+++ b/assets/files/submission/metabobank/MetaboBank_DI-MS_metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32940" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8952"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="260">
   <si>
     <t>Study Title</t>
   </si>
@@ -769,10 +769,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Update definitions to MB-IDF-version=2022-02-18 and MB-SDRF-version=2022-02-18.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Comment[Related study]</t>
   </si>
   <si>
@@ -897,6 +893,12 @@
   </si>
   <si>
     <t>Reference to Direct infusion protocol.</t>
+  </si>
+  <si>
+    <t>Update definitions to MB-IDF-version=2022-06-29 and MB-SDRF-version=2022-02-18.</t>
+  </si>
+  <si>
+    <t>matrix-assisted laser desorption-ionisation mass spectrometry</t>
   </si>
 </sst>
 </file>
@@ -1406,109 +1408,109 @@
   <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A20" sqref="A20:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="126.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.875" style="4"/>
+    <col min="1" max="1" width="126.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" s="32" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>219</v>
       </c>
       <c r="B16" s="7">
-        <v>44645</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>44741</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>220</v>
       </c>
       <c r="B18" s="7"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>221</v>
       </c>
@@ -1516,232 +1518,232 @@
         <v>44509</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="B20" s="7">
-        <v>44645</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>44741</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="7"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="7"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="6"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
     </row>
   </sheetData>
@@ -1760,13 +1762,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.5" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="38.44140625" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="38.5" style="10"/>
+    <col min="1" max="16384" width="38.44140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1777,19 +1779,19 @@
     </row>
     <row r="2" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>192</v>
       </c>
@@ -1797,24 +1799,24 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="11"/>
     </row>
-    <row r="10" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>2</v>
       </c>
@@ -1825,7 +1827,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>3</v>
       </c>
@@ -1836,15 +1838,15 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
     </row>
-    <row r="14" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>5</v>
       </c>
@@ -1855,7 +1857,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>6</v>
       </c>
@@ -1866,7 +1868,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>7</v>
       </c>
@@ -1877,7 +1879,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>188</v>
       </c>
@@ -1888,7 +1890,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>8</v>
       </c>
@@ -1899,15 +1901,15 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>10</v>
       </c>
@@ -1918,7 +1920,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>11</v>
       </c>
@@ -1929,10 +1931,10 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
     </row>
-    <row r="24" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>12</v>
       </c>
@@ -1943,7 +1945,7 @@
         <v>49</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>50</v>
@@ -1955,7 +1957,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
@@ -1966,7 +1968,7 @@
         <v>49</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>50</v>
@@ -1978,7 +1980,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>14</v>
       </c>
@@ -1989,7 +1991,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>15</v>
       </c>
@@ -1998,7 +2000,7 @@
         <v>127</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>128</v>
@@ -2006,7 +2008,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>16</v>
       </c>
@@ -2017,7 +2019,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>17</v>
       </c>
@@ -2028,35 +2030,35 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
     </row>
-    <row r="31" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>23</v>
       </c>
@@ -2067,46 +2069,48 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="11"/>
+      <c r="B40" s="11" t="s">
+        <v>84</v>
+      </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>206</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>27</v>
       </c>
@@ -2140,7 +2144,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>ADMIN!$C$2:$C$26</xm:f>
+            <xm:f>ADMIN!$C$2:$C$27</xm:f>
           </x14:formula1>
           <xm:sqref>B40:G40</xm:sqref>
         </x14:dataValidation>
@@ -2161,33 +2165,33 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="48.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="48.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.625" style="10"/>
+    <col min="1" max="1" width="48.6640625" style="10"/>
     <col min="2" max="2" width="34" style="10" customWidth="1"/>
-    <col min="3" max="3" width="34.375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="27.625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="48.625" style="10"/>
+    <col min="3" max="3" width="34.33203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="48.6640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" s="9"/>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>139</v>
       </c>
@@ -2198,7 +2202,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>189</v>
       </c>
@@ -2207,7 +2211,7 @@
       </c>
       <c r="C5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>190</v>
       </c>
@@ -2216,7 +2220,7 @@
       </c>
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>0</v>
       </c>
@@ -2227,7 +2231,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>1</v>
       </c>
@@ -2238,7 +2242,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>2</v>
       </c>
@@ -2249,7 +2253,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>3</v>
       </c>
@@ -2260,7 +2264,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>4</v>
       </c>
@@ -2271,10 +2275,10 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>5</v>
       </c>
@@ -2291,7 +2295,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>6</v>
       </c>
@@ -2308,12 +2312,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>188</v>
       </c>
@@ -2321,7 +2325,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>8</v>
       </c>
@@ -2329,21 +2333,21 @@
         <v>135</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>10</v>
       </c>
@@ -2351,7 +2355,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>11</v>
       </c>
@@ -2359,10 +2363,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="14"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>12</v>
       </c>
@@ -2370,7 +2374,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>13</v>
       </c>
@@ -2378,7 +2382,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>14</v>
       </c>
@@ -2386,7 +2390,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>15</v>
       </c>
@@ -2394,7 +2398,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>16</v>
       </c>
@@ -2402,7 +2406,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>17</v>
       </c>
@@ -2410,35 +2414,35 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>23</v>
       </c>
@@ -2446,7 +2450,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>24</v>
       </c>
@@ -2454,41 +2458,41 @@
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>25</v>
       </c>
       <c r="B42" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>27</v>
       </c>
@@ -2511,55 +2515,55 @@
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="50.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="34.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="32.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="31.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="37.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="26.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="29.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="50.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="34.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="31.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="37.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="29.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="45" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="28.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="24.875" style="3"/>
+    <col min="29" max="29" width="28.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="24.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>28</v>
       </c>
@@ -2588,7 +2592,7 @@
         <v>30</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K4" s="21" t="s">
         <v>35</v>
@@ -2651,7 +2655,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
@@ -2665,7 +2669,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
@@ -2695,7 +2699,7 @@
       <c r="AC5" s="11"/>
       <c r="AD5" s="11"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
@@ -2709,7 +2713,7 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
@@ -2739,7 +2743,7 @@
       <c r="AC6" s="11"/>
       <c r="AD6" s="11"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
@@ -2753,7 +2757,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
@@ -2783,7 +2787,7 @@
       <c r="AC7" s="11"/>
       <c r="AD7" s="11"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="17"/>
@@ -2815,7 +2819,7 @@
       <c r="AC8" s="11"/>
       <c r="AD8" s="11"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="17"/>
@@ -2847,7 +2851,7 @@
       <c r="AC9" s="11"/>
       <c r="AD9" s="11"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="17"/>
@@ -2879,7 +2883,7 @@
       <c r="AC10" s="11"/>
       <c r="AD10" s="11"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="17"/>
@@ -2911,7 +2915,7 @@
       <c r="AC11" s="11"/>
       <c r="AD11" s="11"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="17"/>
@@ -2943,7 +2947,7 @@
       <c r="AC12" s="11"/>
       <c r="AD12" s="11"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="17"/>
@@ -2975,7 +2979,7 @@
       <c r="AC13" s="11"/>
       <c r="AD13" s="11"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="17"/>
@@ -3007,7 +3011,7 @@
       <c r="AC14" s="11"/>
       <c r="AD14" s="11"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="17"/>
@@ -3039,7 +3043,7 @@
       <c r="AC15" s="11"/>
       <c r="AD15" s="11"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="17"/>
@@ -3071,7 +3075,7 @@
       <c r="AC16" s="11"/>
       <c r="AD16" s="11"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="17"/>
@@ -3103,7 +3107,7 @@
       <c r="AC17" s="11"/>
       <c r="AD17" s="11"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="17"/>
@@ -3135,7 +3139,7 @@
       <c r="AC18" s="11"/>
       <c r="AD18" s="11"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="17"/>
@@ -3167,7 +3171,7 @@
       <c r="AC19" s="11"/>
       <c r="AD19" s="11"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="17"/>
@@ -3199,7 +3203,7 @@
       <c r="AC20" s="11"/>
       <c r="AD20" s="11"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="17"/>
@@ -3231,7 +3235,7 @@
       <c r="AC21" s="11"/>
       <c r="AD21" s="11"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="17"/>
@@ -3263,7 +3267,7 @@
       <c r="AC22" s="11"/>
       <c r="AD22" s="11"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="17"/>
@@ -3295,7 +3299,7 @@
       <c r="AC23" s="11"/>
       <c r="AD23" s="11"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="17"/>
@@ -3327,7 +3331,7 @@
       <c r="AC24" s="11"/>
       <c r="AD24" s="11"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="17"/>
@@ -3359,7 +3363,7 @@
       <c r="AC25" s="11"/>
       <c r="AD25" s="11"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="17"/>
@@ -3391,7 +3395,7 @@
       <c r="AC26" s="11"/>
       <c r="AD26" s="11"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="17"/>
@@ -3423,7 +3427,7 @@
       <c r="AC27" s="11"/>
       <c r="AD27" s="11"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="17"/>
@@ -3455,7 +3459,7 @@
       <c r="AC28" s="11"/>
       <c r="AD28" s="11"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="17"/>
@@ -3487,7 +3491,7 @@
       <c r="AC29" s="11"/>
       <c r="AD29" s="11"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="17"/>
@@ -3519,7 +3523,7 @@
       <c r="AC30" s="11"/>
       <c r="AD30" s="11"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="17"/>
@@ -3551,7 +3555,7 @@
       <c r="AC31" s="11"/>
       <c r="AD31" s="11"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="17"/>
@@ -3583,7 +3587,7 @@
       <c r="AC32" s="11"/>
       <c r="AD32" s="11"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="17"/>
@@ -3615,7 +3619,7 @@
       <c r="AC33" s="11"/>
       <c r="AD33" s="11"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="17"/>
@@ -3647,7 +3651,7 @@
       <c r="AC34" s="11"/>
       <c r="AD34" s="11"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="17"/>
@@ -3679,7 +3683,7 @@
       <c r="AC35" s="11"/>
       <c r="AD35" s="11"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="17"/>
@@ -3711,7 +3715,7 @@
       <c r="AC36" s="11"/>
       <c r="AD36" s="11"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="17"/>
@@ -3743,7 +3747,7 @@
       <c r="AC37" s="11"/>
       <c r="AD37" s="11"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="17"/>
@@ -3775,7 +3779,7 @@
       <c r="AC38" s="11"/>
       <c r="AD38" s="11"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="17"/>
@@ -3807,7 +3811,7 @@
       <c r="AC39" s="11"/>
       <c r="AD39" s="11"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="17"/>
@@ -3839,7 +3843,7 @@
       <c r="AC40" s="11"/>
       <c r="AD40" s="11"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="17"/>
@@ -3871,7 +3875,7 @@
       <c r="AC41" s="11"/>
       <c r="AD41" s="11"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="17"/>
@@ -3903,7 +3907,7 @@
       <c r="AC42" s="11"/>
       <c r="AD42" s="11"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="17"/>
@@ -3935,7 +3939,7 @@
       <c r="AC43" s="11"/>
       <c r="AD43" s="11"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="17"/>
@@ -3967,7 +3971,7 @@
       <c r="AC44" s="11"/>
       <c r="AD44" s="11"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="17"/>
@@ -3999,7 +4003,7 @@
       <c r="AC45" s="11"/>
       <c r="AD45" s="11"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="17"/>
@@ -4031,7 +4035,7 @@
       <c r="AC46" s="11"/>
       <c r="AD46" s="11"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="17"/>
@@ -4063,7 +4067,7 @@
       <c r="AC47" s="11"/>
       <c r="AD47" s="11"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="17"/>
@@ -4095,7 +4099,7 @@
       <c r="AC48" s="11"/>
       <c r="AD48" s="11"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="17"/>
@@ -4127,7 +4131,7 @@
       <c r="AC49" s="11"/>
       <c r="AD49" s="11"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="17"/>
@@ -4159,7 +4163,7 @@
       <c r="AC50" s="11"/>
       <c r="AD50" s="11"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="17"/>
@@ -4191,7 +4195,7 @@
       <c r="AC51" s="11"/>
       <c r="AD51" s="11"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="17"/>
@@ -4223,7 +4227,7 @@
       <c r="AC52" s="11"/>
       <c r="AD52" s="11"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="17"/>
@@ -4255,7 +4259,7 @@
       <c r="AC53" s="11"/>
       <c r="AD53" s="11"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="17"/>
@@ -4287,7 +4291,7 @@
       <c r="AC54" s="11"/>
       <c r="AD54" s="11"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="17"/>
@@ -4319,7 +4323,7 @@
       <c r="AC55" s="11"/>
       <c r="AD55" s="11"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="17"/>
@@ -4351,7 +4355,7 @@
       <c r="AC56" s="11"/>
       <c r="AD56" s="11"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="17"/>
@@ -4383,7 +4387,7 @@
       <c r="AC57" s="11"/>
       <c r="AD57" s="11"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="17"/>
@@ -4415,7 +4419,7 @@
       <c r="AC58" s="11"/>
       <c r="AD58" s="11"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="17"/>
@@ -4447,7 +4451,7 @@
       <c r="AC59" s="11"/>
       <c r="AD59" s="11"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="17"/>
@@ -4479,7 +4483,7 @@
       <c r="AC60" s="11"/>
       <c r="AD60" s="11"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="17"/>
@@ -4511,7 +4515,7 @@
       <c r="AC61" s="11"/>
       <c r="AD61" s="11"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="17"/>
@@ -4543,7 +4547,7 @@
       <c r="AC62" s="11"/>
       <c r="AD62" s="11"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="17"/>
@@ -4575,7 +4579,7 @@
       <c r="AC63" s="11"/>
       <c r="AD63" s="11"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="17"/>
@@ -4607,7 +4611,7 @@
       <c r="AC64" s="11"/>
       <c r="AD64" s="11"/>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="17"/>
@@ -4639,7 +4643,7 @@
       <c r="AC65" s="11"/>
       <c r="AD65" s="11"/>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="18"/>
@@ -4671,7 +4675,7 @@
       <c r="AC66" s="11"/>
       <c r="AD66" s="11"/>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="18"/>
@@ -4703,7 +4707,7 @@
       <c r="AC67" s="11"/>
       <c r="AD67" s="11"/>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="18"/>
@@ -4735,7 +4739,7 @@
       <c r="AC68" s="11"/>
       <c r="AD68" s="11"/>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="18"/>
@@ -4767,7 +4771,7 @@
       <c r="AC69" s="11"/>
       <c r="AD69" s="11"/>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="18"/>
@@ -4799,7 +4803,7 @@
       <c r="AC70" s="11"/>
       <c r="AD70" s="11"/>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="18"/>
@@ -4831,7 +4835,7 @@
       <c r="AC71" s="11"/>
       <c r="AD71" s="11"/>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="18"/>
@@ -4863,7 +4867,7 @@
       <c r="AC72" s="11"/>
       <c r="AD72" s="11"/>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="18"/>
@@ -4895,7 +4899,7 @@
       <c r="AC73" s="11"/>
       <c r="AD73" s="11"/>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="18"/>
@@ -4927,7 +4931,7 @@
       <c r="AC74" s="11"/>
       <c r="AD74" s="11"/>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="18"/>
@@ -4959,7 +4963,7 @@
       <c r="AC75" s="11"/>
       <c r="AD75" s="11"/>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="18"/>
@@ -4991,7 +4995,7 @@
       <c r="AC76" s="11"/>
       <c r="AD76" s="11"/>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="18"/>
@@ -5023,7 +5027,7 @@
       <c r="AC77" s="11"/>
       <c r="AD77" s="11"/>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="18"/>
@@ -5055,7 +5059,7 @@
       <c r="AC78" s="11"/>
       <c r="AD78" s="11"/>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="18"/>
@@ -5087,7 +5091,7 @@
       <c r="AC79" s="11"/>
       <c r="AD79" s="11"/>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="18"/>
@@ -5119,7 +5123,7 @@
       <c r="AC80" s="11"/>
       <c r="AD80" s="11"/>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="18"/>
@@ -5151,7 +5155,7 @@
       <c r="AC81" s="11"/>
       <c r="AD81" s="11"/>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="18"/>
@@ -5183,7 +5187,7 @@
       <c r="AC82" s="11"/>
       <c r="AD82" s="11"/>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="18"/>
@@ -5215,7 +5219,7 @@
       <c r="AC83" s="11"/>
       <c r="AD83" s="11"/>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="18"/>
@@ -5247,7 +5251,7 @@
       <c r="AC84" s="11"/>
       <c r="AD84" s="11"/>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="18"/>
@@ -5279,7 +5283,7 @@
       <c r="AC85" s="11"/>
       <c r="AD85" s="11"/>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="18"/>
@@ -5311,7 +5315,7 @@
       <c r="AC86" s="11"/>
       <c r="AD86" s="11"/>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="18"/>
@@ -5343,7 +5347,7 @@
       <c r="AC87" s="11"/>
       <c r="AD87" s="11"/>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="18"/>
@@ -5375,7 +5379,7 @@
       <c r="AC88" s="11"/>
       <c r="AD88" s="11"/>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="18"/>
@@ -5407,7 +5411,7 @@
       <c r="AC89" s="11"/>
       <c r="AD89" s="11"/>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="18"/>
@@ -5439,7 +5443,7 @@
       <c r="AC90" s="11"/>
       <c r="AD90" s="11"/>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="18"/>
@@ -5471,7 +5475,7 @@
       <c r="AC91" s="11"/>
       <c r="AD91" s="11"/>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="18"/>
@@ -5503,7 +5507,7 @@
       <c r="AC92" s="11"/>
       <c r="AD92" s="11"/>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="18"/>
@@ -5535,7 +5539,7 @@
       <c r="AC93" s="11"/>
       <c r="AD93" s="11"/>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="18"/>
@@ -5567,7 +5571,7 @@
       <c r="AC94" s="11"/>
       <c r="AD94" s="11"/>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="18"/>
@@ -5599,7 +5603,7 @@
       <c r="AC95" s="11"/>
       <c r="AD95" s="11"/>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="18"/>
@@ -5631,7 +5635,7 @@
       <c r="AC96" s="11"/>
       <c r="AD96" s="11"/>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="18"/>
@@ -5663,7 +5667,7 @@
       <c r="AC97" s="11"/>
       <c r="AD97" s="11"/>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="18"/>
@@ -5695,7 +5699,7 @@
       <c r="AC98" s="11"/>
       <c r="AD98" s="11"/>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="18"/>
@@ -5727,7 +5731,7 @@
       <c r="AC99" s="11"/>
       <c r="AD99" s="11"/>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="18"/>
@@ -5759,7 +5763,7 @@
       <c r="AC100" s="11"/>
       <c r="AD100" s="11"/>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="18"/>
@@ -5791,7 +5795,7 @@
       <c r="AC101" s="11"/>
       <c r="AD101" s="11"/>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="18"/>
@@ -5823,7 +5827,7 @@
       <c r="AC102" s="11"/>
       <c r="AD102" s="11"/>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="18"/>
@@ -5855,7 +5859,7 @@
       <c r="AC103" s="11"/>
       <c r="AD103" s="11"/>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="18"/>
@@ -5887,7 +5891,7 @@
       <c r="AC104" s="11"/>
       <c r="AD104" s="11"/>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="18"/>
@@ -5939,30 +5943,30 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="37.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="37.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.875" style="10"/>
-    <col min="3" max="4" width="37.875" style="27"/>
-    <col min="5" max="16384" width="37.875" style="10"/>
+    <col min="1" max="1" width="48.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" style="10"/>
+    <col min="3" max="4" width="37.88671875" style="27"/>
+    <col min="5" max="16384" width="37.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>162</v>
@@ -5972,7 +5976,7 @@
       </c>
       <c r="D4" s="29"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>28</v>
       </c>
@@ -5984,7 +5988,7 @@
       </c>
       <c r="D5" s="29"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>29</v>
       </c>
@@ -5994,7 +5998,7 @@
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>30</v>
       </c>
@@ -6004,7 +6008,7 @@
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>31</v>
       </c>
@@ -6014,7 +6018,7 @@
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>30</v>
       </c>
@@ -6024,9 +6028,9 @@
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>168</v>
@@ -6034,7 +6038,7 @@
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>33</v>
       </c>
@@ -6044,9 +6048,9 @@
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>170</v>
@@ -6054,24 +6058,24 @@
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>35</v>
       </c>
@@ -6081,7 +6085,7 @@
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>36</v>
       </c>
@@ -6091,7 +6095,7 @@
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>30</v>
       </c>
@@ -6101,7 +6105,7 @@
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>37</v>
       </c>
@@ -6111,7 +6115,7 @@
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>38</v>
       </c>
@@ -6121,7 +6125,7 @@
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>39</v>
       </c>
@@ -6131,7 +6135,7 @@
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>40</v>
       </c>
@@ -6141,7 +6145,7 @@
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>41</v>
       </c>
@@ -6151,7 +6155,7 @@
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>42</v>
       </c>
@@ -6161,7 +6165,7 @@
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>43</v>
       </c>
@@ -6171,7 +6175,7 @@
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>44</v>
       </c>
@@ -6181,7 +6185,7 @@
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>198</v>
       </c>
@@ -6191,7 +6195,7 @@
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>30</v>
       </c>
@@ -6201,7 +6205,7 @@
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>45</v>
       </c>
@@ -6211,7 +6215,7 @@
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>199</v>
       </c>
@@ -6221,7 +6225,7 @@
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>30</v>
       </c>
@@ -6231,7 +6235,7 @@
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>204</v>
       </c>
@@ -6241,7 +6245,7 @@
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>196</v>
       </c>
@@ -6251,7 +6255,7 @@
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>200</v>
       </c>
@@ -6261,7 +6265,7 @@
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>47</v>
       </c>
@@ -6271,107 +6275,107 @@
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C40" s="29"/>
       <c r="D40" s="29"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C45" s="29"/>
       <c r="D45" s="29"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C46" s="29"/>
       <c r="D46" s="29"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" s="29"/>
       <c r="D50" s="29"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" s="29"/>
       <c r="D51" s="29"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" s="29"/>
       <c r="D52" s="29"/>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53" s="29"/>
       <c r="D53" s="29"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C54" s="29"/>
       <c r="D54" s="29"/>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C55" s="29"/>
       <c r="D55" s="29"/>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C56" s="29"/>
       <c r="D56" s="29"/>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C57" s="29"/>
       <c r="D57" s="29"/>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
     </row>
@@ -6387,18 +6391,18 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C2" sqref="C2:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="96.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="3"/>
+    <col min="3" max="3" width="96.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>53</v>
       </c>
@@ -6409,7 +6413,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>55</v>
       </c>
@@ -6420,7 +6424,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>56</v>
       </c>
@@ -6428,10 +6432,10 @@
         <v>59</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>80</v>
       </c>
@@ -6439,12 +6443,12 @@
         <v>61</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>63</v>
@@ -6453,9 +6457,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>65</v>
@@ -6464,9 +6468,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>67</v>
@@ -6475,9 +6479,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>69</v>
@@ -6486,9 +6490,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>71</v>
@@ -6497,7 +6501,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>58</v>
       </c>
@@ -6508,7 +6512,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>60</v>
       </c>
@@ -6519,18 +6523,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>64</v>
       </c>
@@ -6538,10 +6542,10 @@
         <v>79</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>66</v>
       </c>
@@ -6552,7 +6556,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>68</v>
       </c>
@@ -6560,10 +6564,10 @@
         <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>70</v>
       </c>
@@ -6574,7 +6578,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>72</v>
       </c>
@@ -6582,10 +6586,10 @@
         <v>116</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>74</v>
       </c>
@@ -6593,10 +6597,10 @@
         <v>90</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>76</v>
       </c>
@@ -6604,10 +6608,10 @@
         <v>92</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>78</v>
       </c>
@@ -6615,10 +6619,10 @@
         <v>94</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>82</v>
       </c>
@@ -6626,10 +6630,10 @@
         <v>118</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>85</v>
       </c>
@@ -6637,103 +6641,106 @@
         <v>95</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>81</v>
       </c>

--- a/assets/files/submission/metabobank/MetaboBank_DI-MS_metadata.xlsx
+++ b/assets/files/submission/metabobank/MetaboBank_DI-MS_metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8952"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23004" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="261">
   <si>
     <t>Study Title</t>
   </si>
@@ -576,14 +576,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A unique identifier from a particular labeled extract. Use a sample name of BioSample in most cases.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>If you used a chemical or biochemical marker in the sample such as a radioactive isotope of fluorescent dye which is bound to a material in order to make it detectable in an analytical instrument then enter it here.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Reference to Mass spectrometry protocol.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -899,6 +891,15 @@
   </si>
   <si>
     <t>matrix-assisted laser desorption-ionisation mass spectrometry</t>
+  </si>
+  <si>
+    <t>Labeled Extract Name was made optional.</t>
+  </si>
+  <si>
+    <t>A unique identifier from a particular extract chemically labeled by isotopes. Optional for non-labeled samples.</t>
+  </si>
+  <si>
+    <t>When samples are chemically labeled by isotopes (chemical isotope labeling), describe isotopes in the Label column and isotope-labeled compounds in the Comment[isotope_labeled_compound] column.</t>
   </si>
 </sst>
 </file>
@@ -1408,7 +1409,7 @@
   <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1420,52 +1421,52 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="32" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1474,19 +1475,19 @@
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1494,7 +1495,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B16" s="7">
         <v>44741</v>
@@ -1506,13 +1507,13 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B19" s="7">
         <v>44509</v>
@@ -1520,15 +1521,19 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B20" s="7">
         <v>44741</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="7"/>
+      <c r="A21" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B21" s="7">
+        <v>44802</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -1773,13 +1778,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B2" s="9"/>
     </row>
@@ -1793,7 +1798,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B5" s="10">
         <v>1.1000000000000001</v>
@@ -1801,7 +1806,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1881,7 +1886,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1906,7 +1911,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1945,7 +1950,7 @@
         <v>49</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>50</v>
@@ -1968,7 +1973,7 @@
         <v>49</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>50</v>
@@ -2000,7 +2005,7 @@
         <v>127</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>128</v>
@@ -2084,10 +2089,10 @@
     </row>
     <row r="41" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2097,12 +2102,12 @@
     </row>
     <row r="43" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2177,13 +2182,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B2" s="9"/>
     </row>
@@ -2204,19 +2209,19 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>189</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>191</v>
       </c>
       <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C6" s="9"/>
     </row>
@@ -2319,7 +2324,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>134</v>
@@ -2333,13 +2338,13 @@
         <v>135</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2460,7 +2465,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2468,23 +2473,23 @@
         <v>25</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2511,8 +2516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD105"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2552,12 +2557,12 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -2592,9 +2597,9 @@
         <v>30</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="K4" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="K4" s="24" t="s">
         <v>35</v>
       </c>
       <c r="L4" s="24" t="s">
@@ -2628,7 +2633,7 @@
         <v>44</v>
       </c>
       <c r="V4" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="W4" s="21" t="s">
         <v>30</v>
@@ -2637,7 +2642,7 @@
         <v>45</v>
       </c>
       <c r="Y4" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z4" s="21" t="s">
         <v>30</v>
@@ -2646,10 +2651,10 @@
         <v>46</v>
       </c>
       <c r="AB4" s="21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AC4" s="21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AD4" s="21" t="s">
         <v>47</v>
@@ -2669,7 +2674,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
@@ -2713,7 +2718,7 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
@@ -2757,7 +2762,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
@@ -5939,8 +5944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5953,12 +5958,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5966,7 +5971,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>162</v>
@@ -5984,7 +5989,7 @@
         <v>165</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D5" s="29"/>
     </row>
@@ -6030,7 +6035,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>168</v>
@@ -6050,7 +6055,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>170</v>
@@ -6063,24 +6068,24 @@
         <v>30</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>171</v>
+        <v>259</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
@@ -6090,7 +6095,7 @@
         <v>36</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>172</v>
+        <v>260</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
@@ -6100,7 +6105,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
@@ -6110,7 +6115,7 @@
         <v>37</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
@@ -6120,7 +6125,7 @@
         <v>38</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
@@ -6130,7 +6135,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
@@ -6140,7 +6145,7 @@
         <v>40</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -6150,7 +6155,7 @@
         <v>41</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
@@ -6160,7 +6165,7 @@
         <v>42</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
@@ -6170,7 +6175,7 @@
         <v>43</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
@@ -6180,17 +6185,17 @@
         <v>44</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
@@ -6200,7 +6205,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
@@ -6210,17 +6215,17 @@
         <v>45</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
@@ -6230,37 +6235,37 @@
         <v>30</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
@@ -6270,7 +6275,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
@@ -6432,7 +6437,7 @@
         <v>59</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6443,12 +6448,12 @@
         <v>61</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>63</v>
@@ -6459,7 +6464,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>65</v>
@@ -6470,7 +6475,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>67</v>
@@ -6481,7 +6486,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>69</v>
@@ -6492,7 +6497,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>71</v>
@@ -6528,7 +6533,7 @@
         <v>62</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>100</v>
@@ -6542,7 +6547,7 @@
         <v>79</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -6564,7 +6569,7 @@
         <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -6641,12 +6646,12 @@
         <v>95</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>120</v>
@@ -6657,7 +6662,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>122</v>
@@ -6687,7 +6692,7 @@
         <v>101</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">

--- a/assets/files/submission/metabobank/MetaboBank_DI-MS_metadata.xlsx
+++ b/assets/files/submission/metabobank/MetaboBank_DI-MS_metadata.xlsx
@@ -4,18 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23004" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17436" windowHeight="11124"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
     <sheet name="MB_Study_IDF" sheetId="2" r:id="rId2"/>
-    <sheet name="MB_Study_IDF HELP" sheetId="14" r:id="rId3"/>
-    <sheet name="MB_Assay_SDRF" sheetId="3" r:id="rId4"/>
-    <sheet name="MB_Assay_SDRF HELP" sheetId="15" r:id="rId5"/>
-    <sheet name="ADMIN" sheetId="10" r:id="rId6"/>
+    <sheet name="MB_Assay_SDRF" sheetId="3" r:id="rId3"/>
+    <sheet name="ADMIN" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">ADMIN!$A$1:$C$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ADMIN!$A$1:$C$39</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="181">
   <si>
     <t>Study Title</t>
   </si>
@@ -414,248 +412,24 @@
   </si>
   <si>
     <t>Scan polarity;Scan m/z range;Instrument;Ion source;Mass analyzer</t>
-  </si>
-  <si>
-    <t>The overall title of the study. This field can only have one value.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A short paragraph describing the study as free-text. This tag can only have one value. The text should clearly explain what you did in your experiment - this will help the curation team to check and process your submission.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A term describing the type of each experimental factor.</t>
-  </si>
-  <si>
-    <t>The experiment design types which are applicable to this study. These terms should come from controlled terms.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A user-defined name for each experimental factor studied by the experiment. These experimental factors represent the variables within the investigation (e.g. growth condition, genotype, organism part). The actual values of these variables will be listed in the SDRF file, in "Ffactor value[&lt;factor name&gt;]" columns.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The organization affiliation for each person associated with the study.</t>
-  </si>
-  <si>
-    <t>The role(s) performed by each person. Only “submitter” role is permitted.</t>
-  </si>
-  <si>
-    <t>The last name of each submitter. Enter last names of submitters in each column.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The first name of each submitter. Enter first names of submitters in each column.</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t># Fields without line boxes can have multiple values in corresponding columns.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Field</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Readme</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Example</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Correlation-based Deconvolution (CorrDec) to generate high quality MS2 spectra from data independent acquisition in multi-sample studies (Chemical standards assay)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Data-independent acquisition mass spectrometry (DIA-MS) is essential for information-rich spectral annotations in untargeted metabolomics. However, the acquired MS2 spectra are highly complex, posing significant annotation challenges. We have developed a correlation-based deconvolution (CorrDec) method that uses ion abundance correlations in multi-sample studies using DIA-MS as an update of our MS-DIAL software. CorrDec is based on the assumption that peak intensities of precursor and fragment ions correlate across samples, and exploits this quantitative information to deconvolute complex DIA spectra. CorrDec clearly improved deconvolution of the original MS-DIAL deconvolution method (MS2Dec) in a dilution series of chemical standards and a 224-sample urinary metabolomics study. The primary advantage of CorrDec over MS2Dec is the ability to discriminate co-eluting low-abundance compounds. CorrDec requires the measurement of multiple samples to successfully deconvolute DIA spectra, and our randomized assessment demonstrated that CorrDec can contribute to studies with as few as 10 unique samples. The presented methodology improves compound annotation and identification in multi-sample studies and will be useful for applications in large cohort studies.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dose response design</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>concentration</t>
-  </si>
-  <si>
-    <t>Mishima</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Tarou</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Fuji</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Saburo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rakuju</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sonoko</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The PubMed IDs of the publication(s) associated with this study (where available).</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A Digital Object Identifier (DOI) for each publication (where available). When PubMed ID and DOI are available, use PubMed ID.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The names of the protocols used.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A free-text description of the protocol. This text is included in a single tab-delimited field.</t>
-  </si>
-  <si>
-    <t>A semicolon-delimited list of parameter names.</t>
-  </si>
-  <si>
-    <t>The protocol hardware is the instrument that was use to capture the sample. If multiple instruments are used, they should be separated by (;)</t>
-  </si>
-  <si>
-    <t>The software used by the protocol.</t>
-  </si>
-  <si>
-    <t>The type of the protocol.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The study types which are applicable to this study. These terms should come from controlled terms.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The experiment types which are applicable to this study. These terms should come from controlled terms.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Readme</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sample attributes. Use BioSample attributes.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Reference to Sample collection protocol.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A unique identifier from a particular source. Use a sample name of BioSample in most cases.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A unique identifier from a particular sample. Use a sample name of BioSample in most cases.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Reference to Extraction protocol.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>This column describes how the sample was extracted into a solvent prior to being injected into the analytical instrument of choice.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>If the sample has been subjected to chemical modification prior to injection.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A unique identifier from a particular extract. Use a sample name of BioSample in most cases.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Reference to Mass spectrometry protocol.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The range used in the assay.</t>
-  </si>
-  <si>
-    <t>Ion source of the instrument where applicable.</t>
-  </si>
-  <si>
-    <t>The analyser/detector of the mass fragments generated during the assay.</t>
-  </si>
-  <si>
-    <t>‘positive’, ‘negative’ or 'alternating'</t>
-  </si>
-  <si>
-    <t>Add the full name of the instrument you used for the MS study in this assay, including the model number.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A unique identifier from a particular assay name. Use a sample name of BioSample in most cases. Technical replicates are differentiated by same sample names, different assay names and technical replicate comments.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Technical replicates such as 1, 2 and 3.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>This is where you should enter the raw (unprocessed) MS data files. Please add the filename in the cell.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Data processing</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>If your data has been processed into one of the open-source raw data formats e.g. mzML, nmrML, then add them here.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Metabolite identification</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A TSV file containing information about the metabolites investigated in the study. Information regarding database accession IDs , where in the spectra the metabolite is found and data pertaining to its abundance within the study samples should be in this file.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The factor values for an experiment are the values of the variables under investigation. For example, an experiment studying the effect of different temparature (heat stress) on a cell culture would have “temparature” as an experimental variable with “Unit” column to indicate the unit.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>decorative_physalis_leaves</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Person Email</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Comment[MetaboBank accession]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>MAGE-TAB Version</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Comment[MetaboBank accession]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Version number of MAGE-TAB.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MAGE-TAB Version</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Accession number issed by Metabobank</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Comment[Processed Data File md5]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -672,38 +446,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Comment[Raw Data File md5]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Comment[Processed Data File md5]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Comment[maf_value_unit]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Enter md5 hash value of Raw Data File here.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MD5 hash value of Processed Data File here.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Enter MD5 hash value of Comment[Metabolite Assignment File here.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Metabolite Assignment File</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Value unit usiing for the experimental data in Metabolite Assignment File. (e.g. "peak area", "pico mole" etc.)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Comment[Submission type]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -712,10 +454,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t># Study (IDF) fields</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t># Assay (SDRF) columns</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -761,28 +499,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Comment[Related study]</t>
-  </si>
-  <si>
-    <t>Comment[Contributor]</t>
-  </si>
-  <si>
-    <t>Bioinformation and DDBJ Center</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Field</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Extract Name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Parameter Value[Post extraction]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>metabolite target analysis</t>
   </si>
   <si>
@@ -826,10 +542,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t># See HELP tabs to view definition, or see https://www.ddbj.nig.ac.jp/metabobank</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Uneditable</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -842,18 +554,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Related study database ID.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BioProject ID.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Name of each contributer.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t># Submission type: MS Direct injection - DI (DI-MS)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -884,9 +584,6 @@
     <t>Parameter Value[DI instrument]</t>
   </si>
   <si>
-    <t>Reference to Direct infusion protocol.</t>
-  </si>
-  <si>
     <t>Update definitions to MB-IDF-version=2022-06-29 and MB-SDRF-version=2022-02-18.</t>
   </si>
   <si>
@@ -896,10 +593,8 @@
     <t>Labeled Extract Name was made optional.</t>
   </si>
   <si>
-    <t>A unique identifier from a particular extract chemically labeled by isotopes. Optional for non-labeled samples.</t>
-  </si>
-  <si>
-    <t>When samples are chemically labeled by isotopes (chemical isotope labeling), describe isotopes in the Label column and isotope-labeled compounds in the Comment[isotope_labeled_compound] column.</t>
+    <t># To view definition, see https://www.ddbj.nig.ac.jp/metabobank/metadata-e.html</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1029,7 +724,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1060,24 +755,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="12">
@@ -1408,9 +1088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1421,52 +1099,52 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>247</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>248</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>208</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="32" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>240</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>210</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>211</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>212</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>213</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>214</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1475,19 +1153,19 @@
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="4" t="s">
-        <v>215</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
-        <v>241</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1495,10 +1173,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c r="B16" s="7">
-        <v>44741</v>
+        <v>44848</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1507,13 +1185,13 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>219</v>
+        <v>151</v>
       </c>
       <c r="B19" s="7">
         <v>44509</v>
@@ -1521,7 +1199,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>256</v>
+        <v>177</v>
       </c>
       <c r="B20" s="7">
         <v>44741</v>
@@ -1529,7 +1207,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>258</v>
+        <v>179</v>
       </c>
       <c r="B21" s="7">
         <v>44802</v>
@@ -1778,13 +1456,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>251</v>
+        <v>173</v>
       </c>
       <c r="B2" s="9"/>
     </row>
@@ -1793,12 +1471,12 @@
     </row>
     <row r="4" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="B5" s="10">
         <v>1.1000000000000001</v>
@@ -1806,7 +1484,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1886,7 +1564,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1911,11 +1589,11 @@
         <v>9</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>239</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="11"/>
@@ -1926,7 +1604,7 @@
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="11"/>
@@ -1940,7 +1618,7 @@
       <c r="B23" s="12"/>
     </row>
     <row r="24" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -1950,7 +1628,7 @@
         <v>49</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>50</v>
@@ -1973,7 +1651,7 @@
         <v>49</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>50</v>
@@ -1997,7 +1675,7 @@
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="11"/>
@@ -2005,7 +1683,7 @@
         <v>127</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>250</v>
+        <v>172</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>128</v>
@@ -2014,7 +1692,7 @@
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="11"/>
@@ -2025,7 +1703,7 @@
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="11"/>
@@ -2089,25 +1767,25 @@
     </row>
     <row r="41" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>252</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
-        <v>243</v>
+      <c r="A43" s="24" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
-        <v>242</v>
+      <c r="A44" s="24" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2164,356 +1842,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="48.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="48.6640625" style="10"/>
-    <col min="2" max="2" width="34" style="10" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="48.6640625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="B2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="14"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="9" scale="50" orientation="landscape" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="5" max="1048575" man="1"/>
-  </colBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD105"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2557,12 +1885,12 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>207</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>249</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -2584,10 +1912,10 @@
       <c r="E4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="23" t="s">
         <v>33</v>
       </c>
       <c r="H4" s="21" t="s">
@@ -2596,44 +1924,44 @@
       <c r="I4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="K4" s="24" t="s">
+      <c r="J4" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="K4" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="23" t="s">
         <v>36</v>
       </c>
       <c r="M4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="N4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="O4" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="P4" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="24" t="s">
+      <c r="Q4" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="24" t="s">
+      <c r="R4" s="23" t="s">
         <v>41</v>
       </c>
       <c r="S4" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="24" t="s">
+      <c r="T4" s="23" t="s">
         <v>43</v>
       </c>
       <c r="U4" s="21" t="s">
         <v>44</v>
       </c>
       <c r="V4" s="21" t="s">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="W4" s="21" t="s">
         <v>30</v>
@@ -2642,7 +1970,7 @@
         <v>45</v>
       </c>
       <c r="Y4" s="21" t="s">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="Z4" s="21" t="s">
         <v>30</v>
@@ -2651,10 +1979,10 @@
         <v>46</v>
       </c>
       <c r="AB4" s="21" t="s">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="AC4" s="21" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="AD4" s="21" t="s">
         <v>47</v>
@@ -2674,7 +2002,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
@@ -2718,7 +2046,7 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
@@ -2762,7 +2090,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
@@ -5940,463 +5268,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D60"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="37.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="48.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875" style="10"/>
-    <col min="3" max="4" width="37.88671875" style="27"/>
-    <col min="5" max="16384" width="37.88671875" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="29"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5" s="29"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C27"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6437,7 +5314,7 @@
         <v>59</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6448,12 +5325,12 @@
         <v>61</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>63</v>
@@ -6464,7 +5341,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>65</v>
@@ -6475,7 +5352,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>67</v>
@@ -6486,7 +5363,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>69</v>
@@ -6497,7 +5374,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>71</v>
@@ -6533,7 +5410,7 @@
         <v>62</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>100</v>
@@ -6547,7 +5424,7 @@
         <v>79</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>236</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -6569,7 +5446,7 @@
         <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>257</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -6646,12 +5523,12 @@
         <v>95</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>237</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>120</v>
@@ -6662,7 +5539,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>122</v>
@@ -6692,7 +5569,7 @@
         <v>101</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>238</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
